--- a/classfiers/bottleneck/decisionTree/bottleneck-decisionTree-results.xlsx
+++ b/classfiers/bottleneck/decisionTree/bottleneck-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7336448598130841</v>
+        <v>0.7881773399014779</v>
       </c>
     </row>
     <row r="3">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4347826086956522</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6388888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.8208333333333334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8555555555555555</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7369565217391305</v>
+        <v>0.8377358490566038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8745067497403947</v>
+        <v>0.9576354679802955</v>
       </c>
     </row>
   </sheetData>
